--- a/ramp/Households.xlsx
+++ b/ramp/Households.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://feemit-my.sharepoint.com/personal/giacomo_falchetta_feem_it/Documents/Current papers/Prod_Uses_Agriculture/Repo/ramp/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stevo\Repositories\PrElGen_platform\ramp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2112" documentId="11_AD4D5CB4E552A5DACE1C64ECC05F79705ADEDD97" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{7652CCD3-0473-412B-9BD3-7D1289D163B2}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6C439F8-F64B-4F8C-BD00-29F9772C52E4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" tabRatio="639" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-19310" yWindow="-110" windowWidth="19420" windowHeight="10560" tabRatio="639" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Rural-1" sheetId="6" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7599" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7511" uniqueCount="60">
   <si>
     <t>Number</t>
   </si>
@@ -758,7 +758,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A32ED45-C5C3-49FB-849C-A817063793FD}">
   <dimension ref="A1:P264"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A59" sqref="A59:XFD59"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -12296,9 +12298,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A8B8AC5-CDDB-4CD8-8E96-ECF4EC779720}">
   <dimension ref="A1:P136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="B133" sqref="B133:P136"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -12838,8 +12838,8 @@
       <c r="N15" s="2">
         <v>0.35</v>
       </c>
-      <c r="O15" t="s">
-        <v>33</v>
+      <c r="O15">
+        <v>0.8</v>
       </c>
       <c r="P15" s="1" t="s">
         <v>33</v>
@@ -13122,8 +13122,8 @@
       <c r="N23" s="2">
         <v>0.35</v>
       </c>
-      <c r="O23" t="s">
-        <v>33</v>
+      <c r="O23">
+        <v>0.6</v>
       </c>
       <c r="P23" s="1" t="s">
         <v>33</v>
@@ -13377,7 +13377,7 @@
         <v>50</v>
       </c>
       <c r="E31">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="F31">
         <v>0.2</v>
@@ -13406,8 +13406,8 @@
       <c r="N31" s="2">
         <v>0.35</v>
       </c>
-      <c r="O31" t="s">
-        <v>33</v>
+      <c r="O31">
+        <v>0.4</v>
       </c>
       <c r="P31" s="1" t="s">
         <v>33</v>
@@ -13661,7 +13661,7 @@
         <v>50</v>
       </c>
       <c r="E39">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="F39">
         <v>0.2</v>
@@ -13690,8 +13690,8 @@
       <c r="N39" s="2">
         <v>0.35</v>
       </c>
-      <c r="O39" t="s">
-        <v>33</v>
+      <c r="O39">
+        <v>0.2</v>
       </c>
       <c r="P39" s="1" t="s">
         <v>33</v>
@@ -14506,32 +14506,32 @@
       <c r="B63" t="s">
         <v>18</v>
       </c>
-      <c r="C63" t="s">
-        <v>34</v>
-      </c>
-      <c r="D63" t="s">
-        <v>34</v>
-      </c>
-      <c r="E63" t="s">
-        <v>34</v>
-      </c>
-      <c r="F63" t="s">
-        <v>34</v>
-      </c>
-      <c r="G63" t="s">
-        <v>34</v>
-      </c>
-      <c r="H63" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I63" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="J63" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="K63" s="1" t="s">
-        <v>34</v>
+      <c r="C63">
+        <v>1</v>
+      </c>
+      <c r="D63">
+        <v>50</v>
+      </c>
+      <c r="E63">
+        <v>300</v>
+      </c>
+      <c r="F63">
+        <v>0.2</v>
+      </c>
+      <c r="G63">
+        <v>15</v>
+      </c>
+      <c r="H63" s="1">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="I63" s="1">
+        <v>0.375</v>
+      </c>
+      <c r="J63" s="1">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="K63" s="1">
+        <v>0.83333333333333337</v>
       </c>
       <c r="L63" s="1" t="s">
         <v>34</v>
@@ -14539,14 +14539,14 @@
       <c r="M63" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="N63" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="O63" t="s">
-        <v>34</v>
+      <c r="N63" s="2">
+        <v>0.35</v>
+      </c>
+      <c r="O63">
+        <v>0.2</v>
       </c>
       <c r="P63" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="64" spans="2:16" x14ac:dyDescent="0.35">
@@ -14797,7 +14797,7 @@
         <v>50</v>
       </c>
       <c r="E71">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="F71">
         <v>0.2</v>
@@ -14826,8 +14826,8 @@
       <c r="N71" s="2">
         <v>0.35</v>
       </c>
-      <c r="O71" t="s">
-        <v>33</v>
+      <c r="O71">
+        <v>0.4</v>
       </c>
       <c r="P71" s="1" t="s">
         <v>33</v>
@@ -15081,7 +15081,7 @@
         <v>50</v>
       </c>
       <c r="E79">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="F79">
         <v>0.2</v>
@@ -15110,8 +15110,8 @@
       <c r="N79" s="2">
         <v>0.35</v>
       </c>
-      <c r="O79" t="s">
-        <v>33</v>
+      <c r="O79">
+        <v>0.6</v>
       </c>
       <c r="P79" s="1" t="s">
         <v>33</v>
@@ -15394,8 +15394,8 @@
       <c r="N87" s="2">
         <v>0.35</v>
       </c>
-      <c r="O87" t="s">
-        <v>33</v>
+      <c r="O87">
+        <v>0.8</v>
       </c>
       <c r="P87" s="1" t="s">
         <v>33</v>
@@ -16661,8 +16661,8 @@
       <c r="N22" s="6">
         <v>0.35</v>
       </c>
-      <c r="O22" s="7" t="s">
-        <v>33</v>
+      <c r="O22" s="7">
+        <v>0.8</v>
       </c>
       <c r="P22" s="5" t="s">
         <v>33</v>
@@ -17131,8 +17131,8 @@
       <c r="N34" s="6">
         <v>0.35</v>
       </c>
-      <c r="O34" s="7" t="s">
-        <v>33</v>
+      <c r="O34" s="7">
+        <v>0.6</v>
       </c>
       <c r="P34" s="5" t="s">
         <v>33</v>
@@ -17601,8 +17601,8 @@
       <c r="N46" s="6">
         <v>0.35</v>
       </c>
-      <c r="O46" s="7" t="s">
-        <v>33</v>
+      <c r="O46" s="7">
+        <v>0.4</v>
       </c>
       <c r="P46" s="5" t="s">
         <v>33</v>
@@ -18042,7 +18042,7 @@
         <v>50</v>
       </c>
       <c r="E58" s="7">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="F58" s="7">
         <v>0.2</v>
@@ -18071,8 +18071,8 @@
       <c r="N58" s="6">
         <v>0.35</v>
       </c>
-      <c r="O58" s="7" t="s">
-        <v>33</v>
+      <c r="O58" s="7">
+        <v>0.2</v>
       </c>
       <c r="P58" s="5" t="s">
         <v>33</v>
@@ -19445,32 +19445,32 @@
       <c r="B94" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C94" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="D94" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="E94" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="F94" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="G94" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="H94" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="I94" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="J94" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="K94" s="5" t="s">
-        <v>34</v>
+      <c r="C94" s="7">
+        <v>1</v>
+      </c>
+      <c r="D94" s="7">
+        <v>50</v>
+      </c>
+      <c r="E94" s="7">
+        <v>300</v>
+      </c>
+      <c r="F94" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="G94" s="7">
+        <v>15</v>
+      </c>
+      <c r="H94" s="5">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="I94" s="5">
+        <v>0.375</v>
+      </c>
+      <c r="J94" s="5">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="K94" s="5">
+        <v>0.83333333333333337</v>
       </c>
       <c r="L94" s="5" t="s">
         <v>34</v>
@@ -19478,14 +19478,14 @@
       <c r="M94" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="N94" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="O94" s="7" t="s">
-        <v>34</v>
+      <c r="N94" s="6">
+        <v>0.35</v>
+      </c>
+      <c r="O94" s="7">
+        <v>0.2</v>
       </c>
       <c r="P94" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="95" spans="2:16" x14ac:dyDescent="0.35">
@@ -19922,7 +19922,7 @@
         <v>50</v>
       </c>
       <c r="E106" s="7">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="F106" s="7">
         <v>0.2</v>
@@ -19951,8 +19951,8 @@
       <c r="N106" s="6">
         <v>0.35</v>
       </c>
-      <c r="O106" s="7" t="s">
-        <v>33</v>
+      <c r="O106" s="7">
+        <v>0.4</v>
       </c>
       <c r="P106" s="5" t="s">
         <v>33</v>
@@ -20421,8 +20421,8 @@
       <c r="N118" s="6">
         <v>0.35</v>
       </c>
-      <c r="O118" s="7" t="s">
-        <v>33</v>
+      <c r="O118" s="7">
+        <v>0.6</v>
       </c>
       <c r="P118" s="5" t="s">
         <v>33</v>
@@ -20891,8 +20891,8 @@
       <c r="N130" s="6">
         <v>0.35</v>
       </c>
-      <c r="O130" s="7" t="s">
-        <v>33</v>
+      <c r="O130" s="7">
+        <v>0.8</v>
       </c>
       <c r="P130" s="5" t="s">
         <v>33</v>
@@ -21472,9 +21472,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0D0B8BA-20A0-4C57-9F8E-D583B80E12FB}">
   <dimension ref="A1:P180"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H14" sqref="H14:M14"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -22472,8 +22470,8 @@
       <c r="N25" s="2">
         <v>0.35</v>
       </c>
-      <c r="O25" s="1" t="s">
-        <v>33</v>
+      <c r="O25" s="3">
+        <v>0.8</v>
       </c>
       <c r="P25" s="1" t="s">
         <v>33</v>
@@ -23086,8 +23084,8 @@
       <c r="N40" s="2">
         <v>0.35</v>
       </c>
-      <c r="O40" s="1" t="s">
-        <v>33</v>
+      <c r="O40" s="3">
+        <v>0.6</v>
       </c>
       <c r="P40" s="1" t="s">
         <v>33</v>
@@ -23700,8 +23698,8 @@
       <c r="N55" s="2">
         <v>0.35</v>
       </c>
-      <c r="O55" s="1" t="s">
-        <v>33</v>
+      <c r="O55" s="3">
+        <v>0.4</v>
       </c>
       <c r="P55" s="1" t="s">
         <v>33</v>
@@ -24285,7 +24283,7 @@
         <v>50</v>
       </c>
       <c r="E70">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="F70">
         <v>0.2</v>
@@ -24314,8 +24312,8 @@
       <c r="N70" s="2">
         <v>0.35</v>
       </c>
-      <c r="O70" s="1" t="s">
-        <v>33</v>
+      <c r="O70" s="3">
+        <v>0.2</v>
       </c>
       <c r="P70" s="1" t="s">
         <v>33</v>
@@ -26120,26 +26118,26 @@
       <c r="B115" t="s">
         <v>18</v>
       </c>
-      <c r="C115" t="s">
-        <v>34</v>
-      </c>
-      <c r="D115" t="s">
-        <v>34</v>
-      </c>
-      <c r="E115" t="s">
-        <v>34</v>
-      </c>
-      <c r="F115" t="s">
-        <v>34</v>
-      </c>
-      <c r="G115" t="s">
-        <v>34</v>
-      </c>
-      <c r="H115" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I115" s="1" t="s">
-        <v>34</v>
+      <c r="C115">
+        <v>2</v>
+      </c>
+      <c r="D115">
+        <v>50</v>
+      </c>
+      <c r="E115">
+        <v>300</v>
+      </c>
+      <c r="F115">
+        <v>0.2</v>
+      </c>
+      <c r="G115">
+        <v>15</v>
+      </c>
+      <c r="H115" s="1">
+        <v>0.375</v>
+      </c>
+      <c r="I115" s="1">
+        <v>0.875</v>
       </c>
       <c r="J115" s="1" t="s">
         <v>34</v>
@@ -26153,14 +26151,14 @@
       <c r="M115" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="N115" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="O115" s="1" t="s">
-        <v>34</v>
+      <c r="N115" s="2">
+        <v>0.35</v>
+      </c>
+      <c r="O115" s="3">
+        <v>0.2</v>
       </c>
       <c r="P115" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="116" spans="1:16" x14ac:dyDescent="0.35">
@@ -26741,7 +26739,7 @@
         <v>50</v>
       </c>
       <c r="E130">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="F130">
         <v>0.2</v>
@@ -26770,8 +26768,8 @@
       <c r="N130" s="2">
         <v>0.35</v>
       </c>
-      <c r="O130" s="1" t="s">
-        <v>33</v>
+      <c r="O130" s="3">
+        <v>0.4</v>
       </c>
       <c r="P130" s="1" t="s">
         <v>33</v>
@@ -27384,8 +27382,8 @@
       <c r="N145" s="2">
         <v>0.35</v>
       </c>
-      <c r="O145" s="1" t="s">
-        <v>33</v>
+      <c r="O145" s="3">
+        <v>0.6</v>
       </c>
       <c r="P145" s="1" t="s">
         <v>33</v>
@@ -27998,8 +27996,8 @@
       <c r="N160" s="2">
         <v>0.35</v>
       </c>
-      <c r="O160" s="1" t="s">
-        <v>33</v>
+      <c r="O160" s="3">
+        <v>0.8</v>
       </c>
       <c r="P160" s="1" t="s">
         <v>33</v>
@@ -28612,7 +28610,7 @@
       <c r="N175" s="2">
         <v>0.35</v>
       </c>
-      <c r="O175" s="1" t="s">
+      <c r="O175" s="3" t="s">
         <v>33</v>
       </c>
       <c r="P175" s="1" t="s">
@@ -29391,11 +29389,11 @@
       <c r="M15" t="s">
         <v>34</v>
       </c>
-      <c r="N15">
-        <v>0.35</v>
-      </c>
-      <c r="O15" t="s">
-        <v>33</v>
+      <c r="N15" s="3">
+        <v>0.35</v>
+      </c>
+      <c r="O15">
+        <v>0.8</v>
       </c>
       <c r="P15" t="s">
         <v>33</v>
@@ -29675,11 +29673,11 @@
       <c r="M23" t="s">
         <v>34</v>
       </c>
-      <c r="N23">
-        <v>0.35</v>
-      </c>
-      <c r="O23" t="s">
-        <v>33</v>
+      <c r="N23" s="3">
+        <v>0.35</v>
+      </c>
+      <c r="O23">
+        <v>0.6</v>
       </c>
       <c r="P23" t="s">
         <v>33</v>
@@ -29959,11 +29957,11 @@
       <c r="M31" t="s">
         <v>34</v>
       </c>
-      <c r="N31">
-        <v>0.35</v>
-      </c>
-      <c r="O31" t="s">
-        <v>33</v>
+      <c r="N31" s="3">
+        <v>0.35</v>
+      </c>
+      <c r="O31">
+        <v>0.4</v>
       </c>
       <c r="P31" t="s">
         <v>33</v>
@@ -30217,7 +30215,7 @@
         <v>50</v>
       </c>
       <c r="E39">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="F39">
         <v>0.2</v>
@@ -30243,11 +30241,11 @@
       <c r="M39" t="s">
         <v>34</v>
       </c>
-      <c r="N39">
-        <v>0.35</v>
-      </c>
-      <c r="O39" t="s">
-        <v>33</v>
+      <c r="N39" s="3">
+        <v>0.35</v>
+      </c>
+      <c r="O39">
+        <v>0.2</v>
       </c>
       <c r="P39" t="s">
         <v>33</v>
@@ -31062,47 +31060,47 @@
       <c r="B63" t="s">
         <v>18</v>
       </c>
-      <c r="C63" t="s">
-        <v>34</v>
-      </c>
-      <c r="D63" t="s">
-        <v>34</v>
-      </c>
-      <c r="E63" t="s">
-        <v>34</v>
-      </c>
-      <c r="F63" t="s">
-        <v>34</v>
-      </c>
-      <c r="G63" t="s">
-        <v>34</v>
-      </c>
-      <c r="H63" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I63" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="J63" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="K63" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="L63" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="M63" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="N63" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="O63" t="s">
-        <v>34</v>
+      <c r="C63">
+        <v>1</v>
+      </c>
+      <c r="D63">
+        <v>50</v>
+      </c>
+      <c r="E63">
+        <v>300</v>
+      </c>
+      <c r="F63">
+        <v>0.2</v>
+      </c>
+      <c r="G63">
+        <v>15</v>
+      </c>
+      <c r="H63" s="1">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="I63" s="1">
+        <v>0.375</v>
+      </c>
+      <c r="J63" s="1">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="K63" s="1">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="L63" t="s">
+        <v>34</v>
+      </c>
+      <c r="M63" t="s">
+        <v>34</v>
+      </c>
+      <c r="N63" s="3">
+        <v>0.35</v>
+      </c>
+      <c r="O63">
+        <v>0.2</v>
       </c>
       <c r="P63" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="64" spans="2:16" x14ac:dyDescent="0.35">
@@ -31353,7 +31351,7 @@
         <v>50</v>
       </c>
       <c r="E71">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="F71">
         <v>0.2</v>
@@ -31379,11 +31377,11 @@
       <c r="M71" t="s">
         <v>34</v>
       </c>
-      <c r="N71">
-        <v>0.35</v>
-      </c>
-      <c r="O71" t="s">
-        <v>33</v>
+      <c r="N71" s="3">
+        <v>0.35</v>
+      </c>
+      <c r="O71">
+        <v>0.4</v>
       </c>
       <c r="P71" t="s">
         <v>33</v>
@@ -31663,11 +31661,11 @@
       <c r="M79" t="s">
         <v>34</v>
       </c>
-      <c r="N79">
-        <v>0.35</v>
-      </c>
-      <c r="O79" t="s">
-        <v>33</v>
+      <c r="N79" s="3">
+        <v>0.35</v>
+      </c>
+      <c r="O79">
+        <v>0.6</v>
       </c>
       <c r="P79" t="s">
         <v>33</v>
@@ -31947,11 +31945,11 @@
       <c r="M87" t="s">
         <v>34</v>
       </c>
-      <c r="N87">
-        <v>0.35</v>
-      </c>
-      <c r="O87" t="s">
-        <v>33</v>
+      <c r="N87" s="3">
+        <v>0.35</v>
+      </c>
+      <c r="O87">
+        <v>0.8</v>
       </c>
       <c r="P87" t="s">
         <v>33</v>
@@ -32298,7 +32296,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{373FC166-B244-4218-85E0-43BC8BE0F033}">
   <dimension ref="A1:P144"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -33153,8 +33151,8 @@
       <c r="N22" s="3">
         <v>0.35</v>
       </c>
-      <c r="O22" t="s">
-        <v>33</v>
+      <c r="O22">
+        <v>0.8</v>
       </c>
       <c r="P22" s="2" t="s">
         <v>33</v>
@@ -33625,8 +33623,8 @@
       <c r="N34" s="3">
         <v>0.35</v>
       </c>
-      <c r="O34" t="s">
-        <v>33</v>
+      <c r="O34">
+        <v>0.6</v>
       </c>
       <c r="P34" s="2" t="s">
         <v>33</v>
@@ -34097,8 +34095,8 @@
       <c r="N46" s="3">
         <v>0.35</v>
       </c>
-      <c r="O46" t="s">
-        <v>33</v>
+      <c r="O46">
+        <v>0.4</v>
       </c>
       <c r="P46" s="2" t="s">
         <v>33</v>
@@ -34540,7 +34538,7 @@
         <v>50</v>
       </c>
       <c r="E58">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="F58">
         <v>0.2</v>
@@ -34569,8 +34567,8 @@
       <c r="N58" s="3">
         <v>0.35</v>
       </c>
-      <c r="O58" t="s">
-        <v>33</v>
+      <c r="O58">
+        <v>0.2</v>
       </c>
       <c r="P58" s="2" t="s">
         <v>33</v>
@@ -35949,47 +35947,47 @@
       <c r="B94" t="s">
         <v>18</v>
       </c>
-      <c r="C94" t="s">
-        <v>34</v>
-      </c>
-      <c r="D94" t="s">
-        <v>34</v>
-      </c>
-      <c r="E94" t="s">
-        <v>34</v>
-      </c>
-      <c r="F94" t="s">
-        <v>34</v>
-      </c>
-      <c r="G94" t="s">
-        <v>34</v>
-      </c>
-      <c r="H94" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I94" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="J94" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="K94" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="L94" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="M94" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="N94" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="O94" t="s">
-        <v>34</v>
+      <c r="C94">
+        <v>1</v>
+      </c>
+      <c r="D94">
+        <v>50</v>
+      </c>
+      <c r="E94">
+        <v>300</v>
+      </c>
+      <c r="F94">
+        <v>0.2</v>
+      </c>
+      <c r="G94">
+        <v>15</v>
+      </c>
+      <c r="H94" s="1">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="I94" s="1">
+        <v>0.375</v>
+      </c>
+      <c r="J94" s="1">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="K94" s="1">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="L94" t="s">
+        <v>34</v>
+      </c>
+      <c r="M94" t="s">
+        <v>34</v>
+      </c>
+      <c r="N94" s="3">
+        <v>0.35</v>
+      </c>
+      <c r="O94">
+        <v>0.2</v>
       </c>
       <c r="P94" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="95" spans="2:16" x14ac:dyDescent="0.35">
@@ -36428,7 +36426,7 @@
         <v>50</v>
       </c>
       <c r="E106">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="F106">
         <v>0.2</v>
@@ -36457,8 +36455,8 @@
       <c r="N106" s="3">
         <v>0.35</v>
       </c>
-      <c r="O106" t="s">
-        <v>33</v>
+      <c r="O106">
+        <v>0.4</v>
       </c>
       <c r="P106" s="2" t="s">
         <v>33</v>
@@ -36929,8 +36927,8 @@
       <c r="N118" s="3">
         <v>0.35</v>
       </c>
-      <c r="O118" t="s">
-        <v>33</v>
+      <c r="O118">
+        <v>0.6</v>
       </c>
       <c r="P118" s="2" t="s">
         <v>33</v>
@@ -37401,8 +37399,8 @@
       <c r="N130" s="3">
         <v>0.35</v>
       </c>
-      <c r="O130" t="s">
-        <v>33</v>
+      <c r="O130">
+        <v>0.8</v>
       </c>
       <c r="P130" s="2" t="s">
         <v>33</v>
@@ -37983,7 +37981,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{054FA94F-99AC-45A2-BC55-3886ED14D396}">
   <dimension ref="A1:P144"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A69" sqref="A69:XFD69"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -43669,7 +43669,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9B50E1D-7FF2-44AB-AB04-FD5D697112F0}">
   <dimension ref="A1:P206"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A197" sqref="A197:XFD197"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>

--- a/ramp/Households.xlsx
+++ b/ramp/Households.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stevo\Repositories\PrElGen_platform\ramp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stevo\Repositories\M-LED\ramp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6C439F8-F64B-4F8C-BD00-29F9772C52E4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BF26172-25C7-4BA0-BCC0-8C3579047ADB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19310" yWindow="-110" windowWidth="19420" windowHeight="10560" tabRatio="639" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-19310" yWindow="-110" windowWidth="19420" windowHeight="10560" tabRatio="639" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Rural-1" sheetId="6" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7511" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7515" uniqueCount="60">
   <si>
     <t>Number</t>
   </si>
@@ -314,7 +314,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normale" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -594,7 +594,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9421B8A8-8AD2-43BE-8145-7FF5A80E0E6F}">
   <dimension ref="A1:P5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -680,11 +682,11 @@
       <c r="I4" s="1">
         <v>1</v>
       </c>
-      <c r="J4" s="1">
-        <v>0</v>
-      </c>
-      <c r="K4" s="1">
-        <v>2.0833333333333332E-2</v>
+      <c r="J4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="L4" s="1" t="s">
         <v>34</v>
@@ -12087,7 +12089,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{730D65F5-CD05-4D33-BC74-0767DDE2F8BB}">
   <dimension ref="A1:P6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L4" sqref="L4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -12173,11 +12177,11 @@
       <c r="I4" s="1">
         <v>1</v>
       </c>
-      <c r="J4" s="1">
-        <v>0</v>
-      </c>
-      <c r="K4" s="1">
-        <v>2.0833333333333332E-2</v>
+      <c r="J4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="L4" s="1">
         <v>0.25</v>
@@ -15809,7 +15813,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{541D48C6-E91A-470B-A7D3-E4C06647EAFE}">
   <dimension ref="A1:P144"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -32296,7 +32300,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{373FC166-B244-4218-85E0-43BC8BE0F033}">
   <dimension ref="A1:P144"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
